--- a/3DBeam/output/Querschnittswerte.xlsx
+++ b/3DBeam/output/Querschnittswerte.xlsx
@@ -455,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U21"/>
+  <dimension ref="A1:P57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,7 +573,7 @@
       <c r="F5" s="3" t="n"/>
       <c r="G5" s="1" t="inlineStr">
         <is>
-          <t>Knick_7</t>
+          <t>Knick_6</t>
         </is>
       </c>
       <c r="H5" s="2" t="n"/>
@@ -582,22 +582,13 @@
       <c r="K5" s="3" t="n"/>
       <c r="L5" s="1" t="inlineStr">
         <is>
-          <t>Knick_6.5</t>
+          <t>Knick_5</t>
         </is>
       </c>
       <c r="M5" s="2" t="n"/>
       <c r="N5" s="2" t="n"/>
       <c r="O5" s="2" t="n"/>
       <c r="P5" s="3" t="n"/>
-      <c r="Q5" s="1" t="inlineStr">
-        <is>
-          <t>Knick_6</t>
-        </is>
-      </c>
-      <c r="R5" s="2" t="n"/>
-      <c r="S5" s="2" t="n"/>
-      <c r="T5" s="2" t="n"/>
-      <c r="U5" s="3" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr"/>
@@ -676,31 +667,6 @@
           <t>t [m]</t>
         </is>
       </c>
-      <c r="Q6" s="1" t="inlineStr">
-        <is>
-          <t>Höhe [m]</t>
-        </is>
-      </c>
-      <c r="R6" s="1" t="inlineStr">
-        <is>
-          <t>d_achse [m]</t>
-        </is>
-      </c>
-      <c r="S6" s="1" t="inlineStr">
-        <is>
-          <t>Iy [m^4]</t>
-        </is>
-      </c>
-      <c r="T6" s="1" t="inlineStr">
-        <is>
-          <t>A [m²]</t>
-        </is>
-      </c>
-      <c r="U6" s="1" t="inlineStr">
-        <is>
-          <t>t [m]</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -751,84 +717,54 @@
       <c r="P8" t="n">
         <v>0.48</v>
       </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>12</v>
-      </c>
-      <c r="S8" t="n">
-        <v>326.2414788463088</v>
-      </c>
-      <c r="T8" t="n">
-        <v>18.09557368467723</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0.48</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B9" t="n">
-        <v>8.461538461538462</v>
+        <v>2.244897959183673</v>
       </c>
       <c r="C9" t="n">
-        <v>11.33846153846154</v>
+        <v>11.82448979591837</v>
       </c>
       <c r="D9" t="n">
-        <v>275.258754682571</v>
+        <v>312.1500571085513</v>
       </c>
       <c r="E9" t="n">
-        <v>17.09799718667578</v>
+        <v>17.83091053214622</v>
       </c>
       <c r="F9" t="n">
         <v>0.48</v>
       </c>
       <c r="G9" t="n">
-        <v>8.461538461538462</v>
+        <v>2.244897959183673</v>
       </c>
       <c r="H9" t="n">
-        <v>11.28571428571429</v>
+        <v>6</v>
       </c>
       <c r="I9" t="n">
-        <v>271.4395834919992</v>
+        <v>40.97561705158311</v>
       </c>
       <c r="J9" t="n">
-        <v>17.01845620344643</v>
+        <v>9.047786842338613</v>
       </c>
       <c r="K9" t="n">
         <v>0.48</v>
       </c>
       <c r="L9" t="n">
-        <v>8.461538461538462</v>
+        <v>2.244897959183673</v>
       </c>
       <c r="M9" t="n">
-        <v>11.21428571428571</v>
+        <v>5</v>
       </c>
       <c r="N9" t="n">
-        <v>266.3243636745387</v>
+        <v>23.7790917861396</v>
       </c>
       <c r="O9" t="n">
-        <v>16.91074445532334</v>
+        <v>7.539822368615511</v>
       </c>
       <c r="P9" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>8.461538461538462</v>
-      </c>
-      <c r="R9" t="n">
-        <v>11.14285714285714</v>
-      </c>
-      <c r="S9" t="n">
-        <v>261.2738533384124</v>
-      </c>
-      <c r="T9" t="n">
-        <v>16.80303270720029</v>
-      </c>
-      <c r="U9" t="n">
         <v>0.48</v>
       </c>
     </row>
@@ -837,63 +773,48 @@
         <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>16.92307692307692</v>
+        <v>4.489795918367347</v>
       </c>
       <c r="C10" t="n">
-        <v>10.67692307692308</v>
+        <v>11.64897959183673</v>
       </c>
       <c r="D10" t="n">
-        <v>229.8880181161402</v>
+        <v>298.470580646603</v>
       </c>
       <c r="E10" t="n">
-        <v>16.10042068867435</v>
+        <v>17.56624737961525</v>
       </c>
       <c r="F10" t="n">
         <v>0.48</v>
       </c>
       <c r="G10" t="n">
-        <v>16.92307692307692</v>
+        <v>4.489795918367347</v>
       </c>
       <c r="H10" t="n">
-        <v>10.57142857142857</v>
+        <v>5.945833333333334</v>
       </c>
       <c r="I10" t="n">
-        <v>223.1498525012531</v>
+        <v>39.88049057037471</v>
       </c>
       <c r="J10" t="n">
-        <v>15.94133872221565</v>
+        <v>8.966105433345266</v>
       </c>
       <c r="K10" t="n">
         <v>0.48</v>
       </c>
       <c r="L10" t="n">
-        <v>16.92307692307692</v>
+        <v>4.489795918367347</v>
       </c>
       <c r="M10" t="n">
-        <v>10.42857142857143</v>
+        <v>4.966666666666667</v>
       </c>
       <c r="N10" t="n">
-        <v>214.2370957442003</v>
+        <v>23.30953985354294</v>
       </c>
       <c r="O10" t="n">
-        <v>15.72591522596949</v>
+        <v>7.489556886158072</v>
       </c>
       <c r="P10" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>16.92307692307692</v>
-      </c>
-      <c r="R10" t="n">
-        <v>10.28571428571429</v>
-      </c>
-      <c r="S10" t="n">
-        <v>205.5650417712186</v>
-      </c>
-      <c r="T10" t="n">
-        <v>15.51049172972334</v>
-      </c>
-      <c r="U10" t="n">
         <v>0.48</v>
       </c>
     </row>
@@ -902,63 +823,48 @@
         <v>3</v>
       </c>
       <c r="B11" t="n">
-        <v>25.38461538461539</v>
+        <v>6.73469387755102</v>
       </c>
       <c r="C11" t="n">
-        <v>10.01538461538462</v>
+        <v>11.4734693877551</v>
       </c>
       <c r="D11" t="n">
-        <v>189.8018397485307</v>
+        <v>285.196934981051</v>
       </c>
       <c r="E11" t="n">
-        <v>15.10284419067291</v>
+        <v>17.30158422708425</v>
       </c>
       <c r="F11" t="n">
         <v>0.48</v>
       </c>
       <c r="G11" t="n">
-        <v>25.38461538461539</v>
+        <v>6.73469387755102</v>
       </c>
       <c r="H11" t="n">
-        <v>9.857142857142858</v>
+        <v>5.891666666666667</v>
       </c>
       <c r="I11" t="n">
-        <v>180.9601235725795</v>
+        <v>38.80509419096631</v>
       </c>
       <c r="J11" t="n">
-        <v>14.86422124098488</v>
+        <v>8.884424024351922</v>
       </c>
       <c r="K11" t="n">
         <v>0.48</v>
       </c>
       <c r="L11" t="n">
-        <v>25.38461538461539</v>
+        <v>6.73469387755102</v>
       </c>
       <c r="M11" t="n">
-        <v>9.642857142857142</v>
+        <v>4.933333333333334</v>
       </c>
       <c r="N11" t="n">
-        <v>169.4310870320085</v>
+        <v>22.84622921835141</v>
       </c>
       <c r="O11" t="n">
-        <v>14.54108599661562</v>
+        <v>7.439291403700636</v>
       </c>
       <c r="P11" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>25.38461538461539</v>
-      </c>
-      <c r="R11" t="n">
-        <v>9.428571428571429</v>
-      </c>
-      <c r="S11" t="n">
-        <v>158.4028276877496</v>
-      </c>
-      <c r="T11" t="n">
-        <v>14.2179507522464</v>
-      </c>
-      <c r="U11" t="n">
         <v>0.48</v>
       </c>
     </row>
@@ -967,63 +873,48 @@
         <v>4</v>
       </c>
       <c r="B12" t="n">
-        <v>33.84615384615385</v>
+        <v>8.979591836734693</v>
       </c>
       <c r="C12" t="n">
-        <v>9.353846153846154</v>
+        <v>11.29795918367347</v>
       </c>
       <c r="D12" t="n">
-        <v>154.6727901812563</v>
+        <v>272.323005632482</v>
       </c>
       <c r="E12" t="n">
-        <v>14.10526769267148</v>
+        <v>17.03692107455325</v>
       </c>
       <c r="F12" t="n">
         <v>0.48</v>
       </c>
       <c r="G12" t="n">
-        <v>33.84615384615385</v>
+        <v>8.979591836734693</v>
       </c>
       <c r="H12" t="n">
-        <v>9.142857142857142</v>
+        <v>5.8375</v>
       </c>
       <c r="I12" t="n">
-        <v>144.4582344044868</v>
+        <v>37.74924817171576</v>
       </c>
       <c r="J12" t="n">
-        <v>13.78710375975407</v>
+        <v>8.802742615358607</v>
       </c>
       <c r="K12" t="n">
         <v>0.48</v>
       </c>
       <c r="L12" t="n">
-        <v>33.84615384615385</v>
+        <v>8.979591836734693</v>
       </c>
       <c r="M12" t="n">
-        <v>8.857142857142858</v>
+        <v>4.9</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3577495146783</v>
+        <v>22.38911799266296</v>
       </c>
       <c r="O12" t="n">
-        <v>13.35625676726176</v>
+        <v>7.389025921243199</v>
       </c>
       <c r="P12" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>33.84615384615385</v>
-      </c>
-      <c r="R12" t="n">
-        <v>8.571428571428571</v>
-      </c>
-      <c r="S12" t="n">
-        <v>119.0749946310287</v>
-      </c>
-      <c r="T12" t="n">
-        <v>12.92540977476945</v>
-      </c>
-      <c r="U12" t="n">
         <v>0.48</v>
       </c>
     </row>
@@ -1032,63 +923,48 @@
         <v>5</v>
       </c>
       <c r="B13" t="n">
-        <v>42.30769230769231</v>
+        <v>11.22448979591837</v>
       </c>
       <c r="C13" t="n">
-        <v>8.692307692307693</v>
+        <v>11.12244897959184</v>
       </c>
       <c r="D13" t="n">
-        <v>124.1734400158309</v>
+        <v>259.8426781214832</v>
       </c>
       <c r="E13" t="n">
-        <v>13.10769119467003</v>
+        <v>16.77225792202226</v>
       </c>
       <c r="F13" t="n">
         <v>0.48</v>
       </c>
       <c r="G13" t="n">
-        <v>42.30769230769231</v>
+        <v>11.22448979591837</v>
       </c>
       <c r="H13" t="n">
-        <v>8.428571428571429</v>
+        <v>5.783333333333333</v>
       </c>
       <c r="I13" t="n">
-        <v>113.2320226954836</v>
+        <v>36.71277277098069</v>
       </c>
       <c r="J13" t="n">
-        <v>12.70998627852329</v>
+        <v>8.721061206365274</v>
       </c>
       <c r="K13" t="n">
         <v>0.48</v>
       </c>
       <c r="L13" t="n">
-        <v>42.30769230769231</v>
+        <v>11.22448979591837</v>
       </c>
       <c r="M13" t="n">
-        <v>8.071428571428571</v>
+        <v>4.866666666666666</v>
       </c>
       <c r="N13" t="n">
-        <v>99.46849516892459</v>
+        <v>21.9381642885755</v>
       </c>
       <c r="O13" t="n">
-        <v>12.1714275379079</v>
+        <v>7.338760438785748</v>
       </c>
       <c r="P13" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>42.30769230769231</v>
-      </c>
-      <c r="R13" t="n">
-        <v>7.714285714285714</v>
-      </c>
-      <c r="S13" t="n">
-        <v>86.86932614407851</v>
-      </c>
-      <c r="T13" t="n">
-        <v>11.63286879729248</v>
-      </c>
-      <c r="U13" t="n">
         <v>0.48</v>
       </c>
     </row>
@@ -1097,63 +973,48 @@
         <v>6</v>
       </c>
       <c r="B14" t="n">
-        <v>50.76923076923077</v>
+        <v>13.46938775510204</v>
       </c>
       <c r="C14" t="n">
-        <v>8.030769230769231</v>
+        <v>10.9469387755102</v>
       </c>
       <c r="D14" t="n">
-        <v>97.97635985376844</v>
+        <v>247.749837968641</v>
       </c>
       <c r="E14" t="n">
-        <v>12.1101146966686</v>
+        <v>16.50759476949126</v>
       </c>
       <c r="F14" t="n">
         <v>0.48</v>
       </c>
       <c r="G14" t="n">
-        <v>50.76923076923077</v>
+        <v>13.46938775510204</v>
       </c>
       <c r="H14" t="n">
-        <v>7.714285714285714</v>
+        <v>5.729166666666667</v>
       </c>
       <c r="I14" t="n">
-        <v>86.86932614407851</v>
+        <v>35.69548824711894</v>
       </c>
       <c r="J14" t="n">
-        <v>11.63286879729248</v>
+        <v>8.639379797371927</v>
       </c>
       <c r="K14" t="n">
         <v>0.48</v>
       </c>
       <c r="L14" t="n">
-        <v>50.76923076923077</v>
+        <v>13.46938775510204</v>
       </c>
       <c r="M14" t="n">
-        <v>7.285714285714286</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="N14" t="n">
-        <v>73.21473597146229</v>
+        <v>21.49332621818708</v>
       </c>
       <c r="O14" t="n">
-        <v>10.98659830855401</v>
+        <v>7.288494956328313</v>
       </c>
       <c r="P14" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>50.76923076923077</v>
-      </c>
-      <c r="R14" t="n">
-        <v>6.857142857142858</v>
-      </c>
-      <c r="S14" t="n">
-        <v>61.07360576992254</v>
-      </c>
-      <c r="T14" t="n">
-        <v>10.34032781981556</v>
-      </c>
-      <c r="U14" t="n">
         <v>0.48</v>
       </c>
     </row>
@@ -1162,63 +1023,48 @@
         <v>7</v>
       </c>
       <c r="B15" t="n">
-        <v>59.23076923076923</v>
+        <v>15.71428571428571</v>
       </c>
       <c r="C15" t="n">
-        <v>7.36923076923077</v>
+        <v>10.77142857142857</v>
       </c>
       <c r="D15" t="n">
-        <v>75.75412029658297</v>
+        <v>236.0383706945426</v>
       </c>
       <c r="E15" t="n">
-        <v>11.11253819866717</v>
+        <v>16.24293161696028</v>
       </c>
       <c r="F15" t="n">
         <v>0.48</v>
       </c>
       <c r="G15" t="n">
-        <v>59.23076923076923</v>
+        <v>15.71428571428571</v>
       </c>
       <c r="H15" t="n">
-        <v>7</v>
+        <v>5.675</v>
       </c>
       <c r="I15" t="n">
-        <v>64.95798244878057</v>
+        <v>34.69721485848844</v>
       </c>
       <c r="J15" t="n">
-        <v>10.55575131606172</v>
+        <v>8.55769838837859</v>
       </c>
       <c r="K15" t="n">
         <v>0.48</v>
       </c>
       <c r="L15" t="n">
-        <v>59.23076923076923</v>
+        <v>15.71428571428571</v>
       </c>
       <c r="M15" t="n">
-        <v>6.5</v>
+        <v>4.8</v>
       </c>
       <c r="N15" t="n">
-        <v>52.04788389900683</v>
+        <v>21.0545618935956</v>
       </c>
       <c r="O15" t="n">
-        <v>9.801769079200167</v>
+        <v>7.238229473870875</v>
       </c>
       <c r="P15" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>59.23076923076923</v>
-      </c>
-      <c r="R15" t="n">
-        <v>6</v>
-      </c>
-      <c r="S15" t="n">
-        <v>40.97561705158311</v>
-      </c>
-      <c r="T15" t="n">
-        <v>9.047786842338613</v>
-      </c>
-      <c r="U15" t="n">
         <v>0.48</v>
       </c>
     </row>
@@ -1227,63 +1073,48 @@
         <v>8</v>
       </c>
       <c r="B16" t="n">
-        <v>67.69230769230769</v>
+        <v>17.95918367346939</v>
       </c>
       <c r="C16" t="n">
-        <v>6.707692307692308</v>
+        <v>10.59591836734694</v>
       </c>
       <c r="D16" t="n">
-        <v>57.17929194578831</v>
+        <v>224.7021618197748</v>
       </c>
       <c r="E16" t="n">
-        <v>10.11496170066572</v>
+        <v>15.97826846442928</v>
       </c>
       <c r="F16" t="n">
         <v>0.48</v>
       </c>
       <c r="G16" t="n">
-        <v>67.69230769230769</v>
+        <v>17.95918367346939</v>
       </c>
       <c r="H16" t="n">
-        <v>6.4</v>
+        <v>5.620833333333334</v>
       </c>
       <c r="I16" t="n">
-        <v>49.69092788675527</v>
+        <v>33.71777286344704</v>
       </c>
       <c r="J16" t="n">
-        <v>9.650972631827852</v>
+        <v>8.476016979385271</v>
       </c>
       <c r="K16" t="n">
         <v>0.48</v>
       </c>
       <c r="L16" t="n">
-        <v>67.69230769230769</v>
+        <v>17.95918367346939</v>
       </c>
       <c r="M16" t="n">
-        <v>5.983333333333333</v>
+        <v>4.766666666666667</v>
       </c>
       <c r="N16" t="n">
-        <v>40.6365428271794</v>
+        <v>20.62182942689901</v>
       </c>
       <c r="O16" t="n">
-        <v>9.022654101109879</v>
+        <v>7.18796399141344</v>
       </c>
       <c r="P16" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>67.69230769230769</v>
-      </c>
-      <c r="R16" t="n">
-        <v>5.566666666666666</v>
-      </c>
-      <c r="S16" t="n">
-        <v>32.75698252035238</v>
-      </c>
-      <c r="T16" t="n">
-        <v>8.394335570391931</v>
-      </c>
-      <c r="U16" t="n">
         <v>0.48</v>
       </c>
     </row>
@@ -1292,63 +1123,48 @@
         <v>9</v>
       </c>
       <c r="B17" t="n">
-        <v>76.15384615384616</v>
+        <v>20.20408163265306</v>
       </c>
       <c r="C17" t="n">
-        <v>6.046153846153846</v>
+        <v>10.42040816326531</v>
       </c>
       <c r="D17" t="n">
-        <v>41.92444540289879</v>
+        <v>213.7350968649245</v>
       </c>
       <c r="E17" t="n">
-        <v>9.117385202664291</v>
+        <v>15.71360531189829</v>
       </c>
       <c r="F17" t="n">
         <v>0.48</v>
       </c>
       <c r="G17" t="n">
-        <v>76.15384615384616</v>
+        <v>20.20408163265306</v>
       </c>
       <c r="H17" t="n">
-        <v>5.8</v>
+        <v>5.566666666666666</v>
       </c>
       <c r="I17" t="n">
-        <v>37.02963593532337</v>
+        <v>32.75698252035238</v>
       </c>
       <c r="J17" t="n">
-        <v>8.74619394759398</v>
+        <v>8.394335570391931</v>
       </c>
       <c r="K17" t="n">
         <v>0.48</v>
       </c>
       <c r="L17" t="n">
-        <v>76.15384615384616</v>
+        <v>20.20408163265306</v>
       </c>
       <c r="M17" t="n">
-        <v>5.466666666666667</v>
+        <v>4.733333333333333</v>
       </c>
       <c r="N17" t="n">
-        <v>31.0316122951785</v>
+        <v>20.19508693019527</v>
       </c>
       <c r="O17" t="n">
-        <v>8.243539123019623</v>
+        <v>7.137698508956001</v>
       </c>
       <c r="P17" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>76.15384615384616</v>
-      </c>
-      <c r="R17" t="n">
-        <v>5.133333333333333</v>
-      </c>
-      <c r="S17" t="n">
-        <v>25.72055024861851</v>
-      </c>
-      <c r="T17" t="n">
-        <v>7.740884298445252</v>
-      </c>
-      <c r="U17" t="n">
         <v>0.48</v>
       </c>
     </row>
@@ -1357,63 +1173,48 @@
         <v>10</v>
       </c>
       <c r="B18" t="n">
-        <v>84.61538461538461</v>
+        <v>22.44897959183673</v>
       </c>
       <c r="C18" t="n">
-        <v>5.384615384615385</v>
+        <v>10.24489795918367</v>
       </c>
       <c r="D18" t="n">
-        <v>29.66215126942802</v>
+        <v>203.1310613505785</v>
       </c>
       <c r="E18" t="n">
-        <v>8.119808704662862</v>
+        <v>15.44894215936729</v>
       </c>
       <c r="F18" t="n">
         <v>0.48</v>
       </c>
       <c r="G18" t="n">
-        <v>84.61538461538461</v>
+        <v>22.44897959183673</v>
       </c>
       <c r="H18" t="n">
-        <v>5.2</v>
+        <v>5.5125</v>
       </c>
       <c r="I18" t="n">
-        <v>26.72981634974197</v>
+        <v>31.81466408756231</v>
       </c>
       <c r="J18" t="n">
-        <v>7.841415263360119</v>
+        <v>8.312654161398584</v>
       </c>
       <c r="K18" t="n">
         <v>0.48</v>
       </c>
       <c r="L18" t="n">
-        <v>84.61538461538461</v>
+        <v>22.44897959183673</v>
       </c>
       <c r="M18" t="n">
-        <v>4.949999999999999</v>
+        <v>4.7</v>
       </c>
       <c r="N18" t="n">
-        <v>23.07710699176539</v>
+        <v>19.77429251558233</v>
       </c>
       <c r="O18" t="n">
-        <v>7.464424144929353</v>
+        <v>7.087433026498564</v>
       </c>
       <c r="P18" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>84.61538461538461</v>
-      </c>
-      <c r="R18" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="S18" t="n">
-        <v>19.77429251558233</v>
-      </c>
-      <c r="T18" t="n">
-        <v>7.087433026498564</v>
-      </c>
-      <c r="U18" t="n">
         <v>0.48</v>
       </c>
     </row>
@@ -1422,63 +1223,48 @@
         <v>11</v>
       </c>
       <c r="B19" t="n">
-        <v>93.07692307692308</v>
+        <v>24.69387755102041</v>
       </c>
       <c r="C19" t="n">
-        <v>4.723076923076923</v>
+        <v>10.06938775510204</v>
       </c>
       <c r="D19" t="n">
-        <v>20.06498014689005</v>
+        <v>192.8839407973238</v>
       </c>
       <c r="E19" t="n">
-        <v>7.122232206661408</v>
+        <v>15.18427900683631</v>
       </c>
       <c r="F19" t="n">
         <v>0.48</v>
       </c>
       <c r="G19" t="n">
-        <v>93.07692307692308</v>
+        <v>24.69387755102041</v>
       </c>
       <c r="H19" t="n">
-        <v>4.6</v>
+        <v>5.458333333333333</v>
       </c>
       <c r="I19" t="n">
-        <v>18.54717888526782</v>
+        <v>30.89063782343474</v>
       </c>
       <c r="J19" t="n">
-        <v>6.936636579126267</v>
+        <v>8.230972752405251</v>
       </c>
       <c r="K19" t="n">
         <v>0.48</v>
       </c>
       <c r="L19" t="n">
-        <v>93.07692307692308</v>
+        <v>24.69387755102041</v>
       </c>
       <c r="M19" t="n">
-        <v>4.433333333333334</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="N19" t="n">
-        <v>16.61704160570171</v>
+        <v>19.35940429515813</v>
       </c>
       <c r="O19" t="n">
-        <v>6.685309166839085</v>
+        <v>7.037167544041129</v>
       </c>
       <c r="P19" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>93.07692307692308</v>
-      </c>
-      <c r="R19" t="n">
-        <v>4.266666666666667</v>
-      </c>
-      <c r="S19" t="n">
-        <v>14.82618160044473</v>
-      </c>
-      <c r="T19" t="n">
-        <v>6.433981754551896</v>
-      </c>
-      <c r="U19" t="n">
         <v>0.48</v>
       </c>
     </row>
@@ -1487,63 +1273,48 @@
         <v>12</v>
       </c>
       <c r="B20" t="n">
-        <v>101.5384615384615</v>
+        <v>26.93877551020408</v>
       </c>
       <c r="C20" t="n">
-        <v>4.061538461538461</v>
+        <v>9.893877551020408</v>
       </c>
       <c r="D20" t="n">
-        <v>12.80550263679894</v>
+        <v>182.9876207257472</v>
       </c>
       <c r="E20" t="n">
-        <v>6.124655708659981</v>
+        <v>14.91961585430531</v>
       </c>
       <c r="F20" t="n">
         <v>0.48</v>
       </c>
       <c r="G20" t="n">
-        <v>101.5384615384615</v>
+        <v>26.93877551020408</v>
       </c>
       <c r="H20" t="n">
-        <v>4</v>
+        <v>5.404166666666667</v>
       </c>
       <c r="I20" t="n">
-        <v>12.23743329715771</v>
+        <v>29.9847239863275</v>
       </c>
       <c r="J20" t="n">
-        <v>6.031857894892404</v>
+        <v>8.149291343411928</v>
       </c>
       <c r="K20" t="n">
         <v>0.48</v>
       </c>
       <c r="L20" t="n">
-        <v>101.5384615384615</v>
+        <v>26.93877551020408</v>
       </c>
       <c r="M20" t="n">
-        <v>3.916666666666667</v>
+        <v>4.633333333333334</v>
       </c>
       <c r="N20" t="n">
-        <v>11.49543082574892</v>
+        <v>18.95038038102063</v>
       </c>
       <c r="O20" t="n">
-        <v>5.90619418874881</v>
+        <v>6.986902061583693</v>
       </c>
       <c r="P20" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>101.5384615384615</v>
-      </c>
-      <c r="R20" t="n">
-        <v>3.833333333333333</v>
-      </c>
-      <c r="S20" t="n">
-        <v>10.78418978240652</v>
-      </c>
-      <c r="T20" t="n">
-        <v>5.780530482605217</v>
-      </c>
-      <c r="U20" t="n">
         <v>0.48</v>
       </c>
     </row>
@@ -1552,72 +1323,1856 @@
         <v>13</v>
       </c>
       <c r="B21" t="n">
+        <v>29.18367346938775</v>
+      </c>
+      <c r="C21" t="n">
+        <v>9.718367346938775</v>
+      </c>
+      <c r="D21" t="n">
+        <v>173.4359866564357</v>
+      </c>
+      <c r="E21" t="n">
+        <v>14.65495270177431</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G21" t="n">
+        <v>29.18367346938775</v>
+      </c>
+      <c r="H21" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="I21" t="n">
+        <v>29.09674283459829</v>
+      </c>
+      <c r="J21" t="n">
+        <v>8.067609934418595</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="L21" t="n">
+        <v>29.18367346938775</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="N21" t="n">
+        <v>18.54717888526782</v>
+      </c>
+      <c r="O21" t="n">
+        <v>6.936636579126267</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B22" t="n">
+        <v>31.42857142857143</v>
+      </c>
+      <c r="C22" t="n">
+        <v>9.542857142857143</v>
+      </c>
+      <c r="D22" t="n">
+        <v>164.2229241099761</v>
+      </c>
+      <c r="E22" t="n">
+        <v>14.39028954924331</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G22" t="n">
+        <v>31.42857142857143</v>
+      </c>
+      <c r="H22" t="n">
+        <v>5.295833333333333</v>
+      </c>
+      <c r="I22" t="n">
+        <v>28.22651462660492</v>
+      </c>
+      <c r="J22" t="n">
+        <v>7.985928525425248</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="L22" t="n">
+        <v>31.42857142857143</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4.566666666666666</v>
+      </c>
+      <c r="N22" t="n">
+        <v>18.14975791999758</v>
+      </c>
+      <c r="O22" t="n">
+        <v>6.886371096668833</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B23" t="n">
+        <v>33.6734693877551</v>
+      </c>
+      <c r="C23" t="n">
+        <v>9.36734693877551</v>
+      </c>
+      <c r="D23" t="n">
+        <v>155.3423186069552</v>
+      </c>
+      <c r="E23" t="n">
+        <v>14.12562639671231</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G23" t="n">
+        <v>33.6734693877551</v>
+      </c>
+      <c r="H23" t="n">
+        <v>5.241666666666667</v>
+      </c>
+      <c r="I23" t="n">
+        <v>27.37385962070537</v>
+      </c>
+      <c r="J23" t="n">
+        <v>7.904247116431929</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="L23" t="n">
+        <v>33.6734693877551</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4.533333333333333</v>
+      </c>
+      <c r="N23" t="n">
+        <v>17.75807559730789</v>
+      </c>
+      <c r="O23" t="n">
+        <v>6.836105614211396</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B24" t="n">
+        <v>35.91836734693877</v>
+      </c>
+      <c r="C24" t="n">
+        <v>9.191836734693878</v>
+      </c>
+      <c r="D24" t="n">
+        <v>146.7880556679601</v>
+      </c>
+      <c r="E24" t="n">
+        <v>13.86096324418133</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G24" t="n">
+        <v>35.91836734693877</v>
+      </c>
+      <c r="H24" t="n">
+        <v>5.1875</v>
+      </c>
+      <c r="I24" t="n">
+        <v>26.53859807525727</v>
+      </c>
+      <c r="J24" t="n">
+        <v>7.822565707438592</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="L24" t="n">
+        <v>35.91836734693877</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="N24" t="n">
+        <v>17.37209002929673</v>
+      </c>
+      <c r="O24" t="n">
+        <v>6.785840131753959</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B25" t="n">
+        <v>38.16326530612245</v>
+      </c>
+      <c r="C25" t="n">
+        <v>9.016326530612245</v>
+      </c>
+      <c r="D25" t="n">
+        <v>138.5540208135775</v>
+      </c>
+      <c r="E25" t="n">
+        <v>13.59630009165034</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G25" t="n">
+        <v>38.16326530612245</v>
+      </c>
+      <c r="H25" t="n">
+        <v>5.133333333333333</v>
+      </c>
+      <c r="I25" t="n">
+        <v>25.72055024861851</v>
+      </c>
+      <c r="J25" t="n">
+        <v>7.740884298445252</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="L25" t="n">
+        <v>38.16326530612245</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4.466666666666667</v>
+      </c>
+      <c r="N25" t="n">
+        <v>16.99175932806201</v>
+      </c>
+      <c r="O25" t="n">
+        <v>6.73557464929652</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B26" t="n">
+        <v>40.40816326530612</v>
+      </c>
+      <c r="C26" t="n">
+        <v>8.840816326530613</v>
+      </c>
+      <c r="D26" t="n">
+        <v>130.6340995643943</v>
+      </c>
+      <c r="E26" t="n">
+        <v>13.33163693911934</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G26" t="n">
+        <v>40.40816326530612</v>
+      </c>
+      <c r="H26" t="n">
+        <v>5.079166666666667</v>
+      </c>
+      <c r="I26" t="n">
+        <v>24.91953639914687</v>
+      </c>
+      <c r="J26" t="n">
+        <v>7.659202889451912</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="L26" t="n">
+        <v>40.40816326530612</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4.433333333333334</v>
+      </c>
+      <c r="N26" t="n">
+        <v>16.61704160570171</v>
+      </c>
+      <c r="O26" t="n">
+        <v>6.685309166839085</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B27" t="n">
+        <v>42.65306122448979</v>
+      </c>
+      <c r="C27" t="n">
+        <v>8.66530612244898</v>
+      </c>
+      <c r="D27" t="n">
+        <v>123.0221774409974</v>
+      </c>
+      <c r="E27" t="n">
+        <v>13.06697378658836</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G27" t="n">
+        <v>42.65306122448979</v>
+      </c>
+      <c r="H27" t="n">
+        <v>5.025</v>
+      </c>
+      <c r="I27" t="n">
+        <v>24.13537678520029</v>
+      </c>
+      <c r="J27" t="n">
+        <v>7.577521480458586</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="L27" t="n">
+        <v>42.65306122448979</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="N27" t="n">
+        <v>16.24789497431378</v>
+      </c>
+      <c r="O27" t="n">
+        <v>6.635043684381644</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B28" t="n">
+        <v>44.89795918367346</v>
+      </c>
+      <c r="C28" t="n">
+        <v>8.489795918367347</v>
+      </c>
+      <c r="D28" t="n">
+        <v>115.7121399639738</v>
+      </c>
+      <c r="E28" t="n">
+        <v>12.80231063405736</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G28" t="n">
+        <v>44.89795918367346</v>
+      </c>
+      <c r="H28" t="n">
+        <v>4.970833333333333</v>
+      </c>
+      <c r="I28" t="n">
+        <v>23.36789166513643</v>
+      </c>
+      <c r="J28" t="n">
+        <v>7.495840071465254</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="L28" t="n">
+        <v>44.89795918367346</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4.366666666666667</v>
+      </c>
+      <c r="N28" t="n">
+        <v>15.88427754599617</v>
+      </c>
+      <c r="O28" t="n">
+        <v>6.584778201924212</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B29" t="n">
+        <v>47.14285714285714</v>
+      </c>
+      <c r="C29" t="n">
+        <v>8.314285714285715</v>
+      </c>
+      <c r="D29" t="n">
+        <v>108.6978726539102</v>
+      </c>
+      <c r="E29" t="n">
+        <v>12.53764748152636</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G29" t="n">
+        <v>47.14285714285714</v>
+      </c>
+      <c r="H29" t="n">
+        <v>4.916666666666666</v>
+      </c>
+      <c r="I29" t="n">
+        <v>22.61690129731316</v>
+      </c>
+      <c r="J29" t="n">
+        <v>7.414158662471918</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="L29" t="n">
+        <v>47.14285714285714</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="N29" t="n">
+        <v>15.5261474328468</v>
+      </c>
+      <c r="O29" t="n">
+        <v>6.534512719466766</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B30" t="n">
+        <v>49.38775510204081</v>
+      </c>
+      <c r="C30" t="n">
+        <v>8.138775510204081</v>
+      </c>
+      <c r="D30" t="n">
+        <v>101.9732610313936</v>
+      </c>
+      <c r="E30" t="n">
+        <v>12.27298432899537</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G30" t="n">
+        <v>49.38775510204081</v>
+      </c>
+      <c r="H30" t="n">
+        <v>4.8625</v>
+      </c>
+      <c r="I30" t="n">
+        <v>21.88222594008828</v>
+      </c>
+      <c r="J30" t="n">
+        <v>7.33247725347857</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="L30" t="n">
+        <v>49.38775510204081</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="N30" t="n">
+        <v>15.17346274696368</v>
+      </c>
+      <c r="O30" t="n">
+        <v>6.484247237009328</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B31" t="n">
+        <v>51.63265306122449</v>
+      </c>
+      <c r="C31" t="n">
+        <v>7.963265306122449</v>
+      </c>
+      <c r="D31" t="n">
+        <v>95.53219061701063</v>
+      </c>
+      <c r="E31" t="n">
+        <v>12.00832117646435</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G31" t="n">
+        <v>51.63265306122449</v>
+      </c>
+      <c r="H31" t="n">
+        <v>4.808333333333334</v>
+      </c>
+      <c r="I31" t="n">
+        <v>21.1636858518197</v>
+      </c>
+      <c r="J31" t="n">
+        <v>7.25079584448525</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="L31" t="n">
+        <v>51.63265306122449</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4.266666666666667</v>
+      </c>
+      <c r="N31" t="n">
+        <v>14.82618160044473</v>
+      </c>
+      <c r="O31" t="n">
+        <v>6.433981754551896</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B32" t="n">
+        <v>53.87755102040816</v>
+      </c>
+      <c r="C32" t="n">
+        <v>7.787755102040816</v>
+      </c>
+      <c r="D32" t="n">
+        <v>89.36854693134862</v>
+      </c>
+      <c r="E32" t="n">
+        <v>11.74365802393336</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G32" t="n">
+        <v>53.87755102040816</v>
+      </c>
+      <c r="H32" t="n">
+        <v>4.754166666666666</v>
+      </c>
+      <c r="I32" t="n">
+        <v>20.4611012908651</v>
+      </c>
+      <c r="J32" t="n">
+        <v>7.169114435491913</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="L32" t="n">
+        <v>53.87755102040816</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4.233333333333333</v>
+      </c>
+      <c r="N32" t="n">
+        <v>14.48426210538791</v>
+      </c>
+      <c r="O32" t="n">
+        <v>6.383716272094455</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B33" t="n">
+        <v>56.12244897959183</v>
+      </c>
+      <c r="C33" t="n">
+        <v>7.612244897959184</v>
+      </c>
+      <c r="D33" t="n">
+        <v>83.47621549499424</v>
+      </c>
+      <c r="E33" t="n">
+        <v>11.47899487140237</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G33" t="n">
+        <v>56.12244897959183</v>
+      </c>
+      <c r="H33" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I33" t="n">
+        <v>19.77429251558233</v>
+      </c>
+      <c r="J33" t="n">
+        <v>7.087433026498564</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="L33" t="n">
+        <v>56.12244897959183</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="N33" t="n">
+        <v>14.14766237389117</v>
+      </c>
+      <c r="O33" t="n">
+        <v>6.333450789637018</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B34" t="n">
+        <v>58.3673469387755</v>
+      </c>
+      <c r="C34" t="n">
+        <v>7.436734693877551</v>
+      </c>
+      <c r="D34" t="n">
+        <v>77.84908182853434</v>
+      </c>
+      <c r="E34" t="n">
+        <v>11.21433171887138</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G34" t="n">
+        <v>58.3673469387755</v>
+      </c>
+      <c r="H34" t="n">
+        <v>4.645833333333333</v>
+      </c>
+      <c r="I34" t="n">
+        <v>19.10307978432925</v>
+      </c>
+      <c r="J34" t="n">
+        <v>7.005751617505233</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="L34" t="n">
+        <v>58.3673469387755</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="N34" t="n">
+        <v>13.81634051805247</v>
+      </c>
+      <c r="O34" t="n">
+        <v>6.283185307179583</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B35" t="n">
+        <v>60.61224489795918</v>
+      </c>
+      <c r="C35" t="n">
+        <v>7.261224489795919</v>
+      </c>
+      <c r="D35" t="n">
+        <v>72.48103145255583</v>
+      </c>
+      <c r="E35" t="n">
+        <v>10.94966856634038</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G35" t="n">
+        <v>60.61224489795918</v>
+      </c>
+      <c r="H35" t="n">
+        <v>4.591666666666667</v>
+      </c>
+      <c r="I35" t="n">
+        <v>18.44728335546369</v>
+      </c>
+      <c r="J35" t="n">
+        <v>6.924070208511907</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="L35" t="n">
+        <v>60.61224489795918</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4.133333333333333</v>
+      </c>
+      <c r="N35" t="n">
+        <v>13.49025464996975</v>
+      </c>
+      <c r="O35" t="n">
+        <v>6.232919824722151</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B36" t="n">
+        <v>62.85714285714285</v>
+      </c>
+      <c r="C36" t="n">
+        <v>7.085714285714285</v>
+      </c>
+      <c r="D36" t="n">
+        <v>67.36594988764566</v>
+      </c>
+      <c r="E36" t="n">
+        <v>10.68500541380941</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G36" t="n">
+        <v>62.85714285714285</v>
+      </c>
+      <c r="H36" t="n">
+        <v>4.5375</v>
+      </c>
+      <c r="I36" t="n">
+        <v>17.80672348734338</v>
+      </c>
+      <c r="J36" t="n">
+        <v>6.842388799518575</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="L36" t="n">
+        <v>62.85714285714285</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="N36" t="n">
+        <v>13.16936288174096</v>
+      </c>
+      <c r="O36" t="n">
+        <v>6.182654342264716</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B37" t="n">
+        <v>65.10204081632652</v>
+      </c>
+      <c r="C37" t="n">
+        <v>6.910204081632653</v>
+      </c>
+      <c r="D37" t="n">
+        <v>62.49772265439054</v>
+      </c>
+      <c r="E37" t="n">
+        <v>10.42034226127841</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G37" t="n">
+        <v>65.10204081632652</v>
+      </c>
+      <c r="H37" t="n">
+        <v>4.483333333333333</v>
+      </c>
+      <c r="I37" t="n">
+        <v>17.18122043832615</v>
+      </c>
+      <c r="J37" t="n">
+        <v>6.76070739052523</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="L37" t="n">
+        <v>65.10204081632652</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4.066666666666666</v>
+      </c>
+      <c r="N37" t="n">
+        <v>12.85362332546405</v>
+      </c>
+      <c r="O37" t="n">
+        <v>6.132388859807278</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B38" t="n">
+        <v>67.3469387755102</v>
+      </c>
+      <c r="C38" t="n">
+        <v>6.73469387755102</v>
+      </c>
+      <c r="D38" t="n">
+        <v>57.87023527337744</v>
+      </c>
+      <c r="E38" t="n">
+        <v>10.15567910874742</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G38" t="n">
+        <v>67.3469387755102</v>
+      </c>
+      <c r="H38" t="n">
+        <v>4.429166666666667</v>
+      </c>
+      <c r="I38" t="n">
+        <v>16.57059446676991</v>
+      </c>
+      <c r="J38" t="n">
+        <v>6.679025981531906</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="L38" t="n">
+        <v>67.3469387755102</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4.033333333333333</v>
+      </c>
+      <c r="N38" t="n">
+        <v>12.54299409323699</v>
+      </c>
+      <c r="O38" t="n">
+        <v>6.082123377349843</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B39" t="n">
+        <v>69.59183673469387</v>
+      </c>
+      <c r="C39" t="n">
+        <v>6.559183673469388</v>
+      </c>
+      <c r="D39" t="n">
+        <v>53.47737326519327</v>
+      </c>
+      <c r="E39" t="n">
+        <v>9.891015956216428</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G39" t="n">
+        <v>69.59183673469387</v>
+      </c>
+      <c r="H39" t="n">
+        <v>4.375</v>
+      </c>
+      <c r="I39" t="n">
+        <v>15.97466583103237</v>
+      </c>
+      <c r="J39" t="n">
+        <v>6.597344572538571</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="L39" t="n">
+        <v>69.59183673469387</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="n">
+        <v>12.23743329715771</v>
+      </c>
+      <c r="O39" t="n">
+        <v>6.031857894892404</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B40" t="n">
+        <v>71.83673469387755</v>
+      </c>
+      <c r="C40" t="n">
+        <v>6.383673469387755</v>
+      </c>
+      <c r="D40" t="n">
+        <v>49.31302215042489</v>
+      </c>
+      <c r="E40" t="n">
+        <v>9.626352803685435</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G40" t="n">
+        <v>71.83673469387755</v>
+      </c>
+      <c r="H40" t="n">
+        <v>4.320833333333333</v>
+      </c>
+      <c r="I40" t="n">
+        <v>15.39325478947138</v>
+      </c>
+      <c r="J40" t="n">
+        <v>6.515663163545232</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="L40" t="n">
+        <v>71.83673469387755</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3.966666666666667</v>
+      </c>
+      <c r="N40" t="n">
+        <v>11.93689904932418</v>
+      </c>
+      <c r="O40" t="n">
+        <v>5.981592412434969</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B41" t="n">
+        <v>74.08163265306122</v>
+      </c>
+      <c r="C41" t="n">
+        <v>6.208163265306123</v>
+      </c>
+      <c r="D41" t="n">
+        <v>45.37106744965918</v>
+      </c>
+      <c r="E41" t="n">
+        <v>9.361689651154443</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G41" t="n">
+        <v>74.08163265306122</v>
+      </c>
+      <c r="H41" t="n">
+        <v>4.266666666666667</v>
+      </c>
+      <c r="I41" t="n">
+        <v>14.82618160044473</v>
+      </c>
+      <c r="J41" t="n">
+        <v>6.433981754551896</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="L41" t="n">
+        <v>74.08163265306122</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3.933333333333334</v>
+      </c>
+      <c r="N41" t="n">
+        <v>11.64134946183435</v>
+      </c>
+      <c r="O41" t="n">
+        <v>5.931326929977532</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B42" t="n">
+        <v>76.32653061224489</v>
+      </c>
+      <c r="C42" t="n">
+        <v>6.03265306122449</v>
+      </c>
+      <c r="D42" t="n">
+        <v>41.64539468348303</v>
+      </c>
+      <c r="E42" t="n">
+        <v>9.09702649862345</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G42" t="n">
+        <v>76.32653061224489</v>
+      </c>
+      <c r="H42" t="n">
+        <v>4.2125</v>
+      </c>
+      <c r="I42" t="n">
+        <v>14.27326652231031</v>
+      </c>
+      <c r="J42" t="n">
+        <v>6.352300345558564</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="L42" t="n">
+        <v>76.32653061224489</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="N42" t="n">
+        <v>11.35074264678615</v>
+      </c>
+      <c r="O42" t="n">
+        <v>5.881061447520093</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B43" t="n">
+        <v>78.57142857142857</v>
+      </c>
+      <c r="C43" t="n">
+        <v>5.857142857142858</v>
+      </c>
+      <c r="D43" t="n">
+        <v>38.12988937248333</v>
+      </c>
+      <c r="E43" t="n">
+        <v>8.832363346092457</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G43" t="n">
+        <v>78.57142857142857</v>
+      </c>
+      <c r="H43" t="n">
+        <v>4.158333333333333</v>
+      </c>
+      <c r="I43" t="n">
+        <v>13.73432981342585</v>
+      </c>
+      <c r="J43" t="n">
+        <v>6.270618936565231</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="L43" t="n">
+        <v>78.57142857142857</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3.866666666666667</v>
+      </c>
+      <c r="N43" t="n">
+        <v>11.06503671627757</v>
+      </c>
+      <c r="O43" t="n">
+        <v>5.830795965062654</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B44" t="n">
+        <v>80.81632653061224</v>
+      </c>
+      <c r="C44" t="n">
+        <v>5.681632653061225</v>
+      </c>
+      <c r="D44" t="n">
+        <v>34.81843703724696</v>
+      </c>
+      <c r="E44" t="n">
+        <v>8.567700193561464</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G44" t="n">
+        <v>80.81632653061224</v>
+      </c>
+      <c r="H44" t="n">
+        <v>4.104166666666666</v>
+      </c>
+      <c r="I44" t="n">
+        <v>13.20919173214919</v>
+      </c>
+      <c r="J44" t="n">
+        <v>6.188937527571897</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="L44" t="n">
+        <v>80.81632653061224</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3.833333333333333</v>
+      </c>
+      <c r="N44" t="n">
+        <v>10.78418978240652</v>
+      </c>
+      <c r="O44" t="n">
+        <v>5.780530482605217</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B45" t="n">
+        <v>83.06122448979592</v>
+      </c>
+      <c r="C45" t="n">
+        <v>5.506122448979592</v>
+      </c>
+      <c r="D45" t="n">
+        <v>31.70492319836072</v>
+      </c>
+      <c r="E45" t="n">
+        <v>8.30303704103045</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G45" t="n">
+        <v>83.06122448979592</v>
+      </c>
+      <c r="H45" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="I45" t="n">
+        <v>12.69767253683815</v>
+      </c>
+      <c r="J45" t="n">
+        <v>6.107256118578555</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="L45" t="n">
+        <v>83.06122448979592</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="N45" t="n">
+        <v>10.50815995727099</v>
+      </c>
+      <c r="O45" t="n">
+        <v>5.730265000147778</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B46" t="n">
+        <v>85.30612244897958</v>
+      </c>
+      <c r="C46" t="n">
+        <v>5.330612244897959</v>
+      </c>
+      <c r="D46" t="n">
+        <v>28.78323337641165</v>
+      </c>
+      <c r="E46" t="n">
+        <v>8.038373888499461</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G46" t="n">
+        <v>85.30612244897958</v>
+      </c>
+      <c r="H46" t="n">
+        <v>3.995833333333333</v>
+      </c>
+      <c r="I46" t="n">
+        <v>12.19959248585056</v>
+      </c>
+      <c r="J46" t="n">
+        <v>6.025574709585221</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="L46" t="n">
+        <v>85.30612244897958</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3.766666666666667</v>
+      </c>
+      <c r="N46" t="n">
+        <v>10.23690535296892</v>
+      </c>
+      <c r="O46" t="n">
+        <v>5.679999517690344</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B47" t="n">
+        <v>87.55102040816325</v>
+      </c>
+      <c r="C47" t="n">
+        <v>5.155102040816327</v>
+      </c>
+      <c r="D47" t="n">
+        <v>26.04725309198657</v>
+      </c>
+      <c r="E47" t="n">
+        <v>7.773710735968468</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G47" t="n">
+        <v>87.55102040816325</v>
+      </c>
+      <c r="H47" t="n">
+        <v>3.941666666666666</v>
+      </c>
+      <c r="I47" t="n">
+        <v>11.71477183754423</v>
+      </c>
+      <c r="J47" t="n">
+        <v>5.943893300591892</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="L47" t="n">
+        <v>87.55102040816325</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3.733333333333333</v>
+      </c>
+      <c r="N47" t="n">
+        <v>9.970384081598258</v>
+      </c>
+      <c r="O47" t="n">
+        <v>5.629734035232905</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B48" t="n">
+        <v>89.79591836734693</v>
+      </c>
+      <c r="C48" t="n">
+        <v>4.979591836734694</v>
+      </c>
+      <c r="D48" t="n">
+        <v>23.49086786567234</v>
+      </c>
+      <c r="E48" t="n">
+        <v>7.509047583437477</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G48" t="n">
+        <v>89.79591836734693</v>
+      </c>
+      <c r="H48" t="n">
+        <v>3.8875</v>
+      </c>
+      <c r="I48" t="n">
+        <v>11.24303085027694</v>
+      </c>
+      <c r="J48" t="n">
+        <v>5.862211891598552</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="L48" t="n">
+        <v>89.79591836734693</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="N48" t="n">
+        <v>9.708554255256955</v>
+      </c>
+      <c r="O48" t="n">
+        <v>5.57946855277547</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B49" t="n">
+        <v>92.0408163265306</v>
+      </c>
+      <c r="C49" t="n">
+        <v>4.804081632653062</v>
+      </c>
+      <c r="D49" t="n">
+        <v>21.10796321805585</v>
+      </c>
+      <c r="E49" t="n">
+        <v>7.244384430906482</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G49" t="n">
+        <v>92.0408163265306</v>
+      </c>
+      <c r="H49" t="n">
+        <v>3.833333333333333</v>
+      </c>
+      <c r="I49" t="n">
+        <v>10.78418978240652</v>
+      </c>
+      <c r="J49" t="n">
+        <v>5.780530482605217</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="L49" t="n">
+        <v>92.0408163265306</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3.666666666666667</v>
+      </c>
+      <c r="N49" t="n">
+        <v>9.451373986042965</v>
+      </c>
+      <c r="O49" t="n">
+        <v>5.529203070318032</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B50" t="n">
+        <v>94.28571428571428</v>
+      </c>
+      <c r="C50" t="n">
+        <v>4.628571428571429</v>
+      </c>
+      <c r="D50" t="n">
+        <v>18.89242466972398</v>
+      </c>
+      <c r="E50" t="n">
+        <v>6.979721278375488</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G50" t="n">
+        <v>94.28571428571428</v>
+      </c>
+      <c r="H50" t="n">
+        <v>3.779166666666667</v>
+      </c>
+      <c r="I50" t="n">
+        <v>10.33806889229083</v>
+      </c>
+      <c r="J50" t="n">
+        <v>5.698849073611886</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="L50" t="n">
+        <v>94.28571428571428</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3.633333333333333</v>
+      </c>
+      <c r="N50" t="n">
+        <v>9.198801386054241</v>
+      </c>
+      <c r="O50" t="n">
+        <v>5.478937587860598</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B51" t="n">
+        <v>96.53061224489795</v>
+      </c>
+      <c r="C51" t="n">
+        <v>4.453061224489796</v>
+      </c>
+      <c r="D51" t="n">
+        <v>16.83813774126363</v>
+      </c>
+      <c r="E51" t="n">
+        <v>6.715058125844497</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G51" t="n">
+        <v>96.53061224489795</v>
+      </c>
+      <c r="H51" t="n">
+        <v>3.725</v>
+      </c>
+      <c r="I51" t="n">
+        <v>9.904488438287611</v>
+      </c>
+      <c r="J51" t="n">
+        <v>5.617167664618549</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="L51" t="n">
+        <v>96.53061224489795</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="N51" t="n">
+        <v>8.950794567388732</v>
+      </c>
+      <c r="O51" t="n">
+        <v>5.428672105403161</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B52" t="n">
+        <v>98.77551020408163</v>
+      </c>
+      <c r="C52" t="n">
+        <v>4.277551020408163</v>
+      </c>
+      <c r="D52" t="n">
+        <v>14.93898795326167</v>
+      </c>
+      <c r="E52" t="n">
+        <v>6.450394973313511</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G52" t="n">
+        <v>98.77551020408163</v>
+      </c>
+      <c r="H52" t="n">
+        <v>3.670833333333333</v>
+      </c>
+      <c r="I52" t="n">
+        <v>9.483268678754715</v>
+      </c>
+      <c r="J52" t="n">
+        <v>5.535486255625211</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="L52" t="n">
+        <v>98.77551020408163</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3.566666666666666</v>
+      </c>
+      <c r="N52" t="n">
+        <v>8.707311642144397</v>
+      </c>
+      <c r="O52" t="n">
+        <v>5.378406622945728</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B53" t="n">
+        <v>101.0204081632653</v>
+      </c>
+      <c r="C53" t="n">
+        <v>4.102040816326531</v>
+      </c>
+      <c r="D53" t="n">
+        <v>13.18886082630497</v>
+      </c>
+      <c r="E53" t="n">
+        <v>6.185731820782516</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G53" t="n">
+        <v>101.0204081632653</v>
+      </c>
+      <c r="H53" t="n">
+        <v>3.616666666666667</v>
+      </c>
+      <c r="I53" t="n">
+        <v>9.074229872049965</v>
+      </c>
+      <c r="J53" t="n">
+        <v>5.45380484663188</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="L53" t="n">
+        <v>101.0204081632653</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3.533333333333333</v>
+      </c>
+      <c r="N53" t="n">
+        <v>8.468310722419181</v>
+      </c>
+      <c r="O53" t="n">
+        <v>5.328141140488293</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B54" t="n">
+        <v>103.265306122449</v>
+      </c>
+      <c r="C54" t="n">
+        <v>3.926530612244898</v>
+      </c>
+      <c r="D54" t="n">
+        <v>11.58164188098043</v>
+      </c>
+      <c r="E54" t="n">
+        <v>5.921068668251525</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G54" t="n">
+        <v>103.265306122449</v>
+      </c>
+      <c r="H54" t="n">
+        <v>3.5625</v>
+      </c>
+      <c r="I54" t="n">
+        <v>8.677192276531162</v>
+      </c>
+      <c r="J54" t="n">
+        <v>5.372123437638551</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="L54" t="n">
+        <v>103.265306122449</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N54" t="n">
+        <v>8.23374992031103</v>
+      </c>
+      <c r="O54" t="n">
+        <v>5.277875658030854</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B55" t="n">
+        <v>105.5102040816327</v>
+      </c>
+      <c r="C55" t="n">
+        <v>3.751020408163265</v>
+      </c>
+      <c r="D55" t="n">
+        <v>10.11121663787493</v>
+      </c>
+      <c r="E55" t="n">
+        <v>5.656405515720532</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G55" t="n">
+        <v>105.5102040816327</v>
+      </c>
+      <c r="H55" t="n">
+        <v>3.508333333333333</v>
+      </c>
+      <c r="I55" t="n">
+        <v>8.29197615055611</v>
+      </c>
+      <c r="J55" t="n">
+        <v>5.29044202864521</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="L55" t="n">
+        <v>105.5102040816327</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3.466666666666667</v>
+      </c>
+      <c r="N55" t="n">
+        <v>8.003587347917913</v>
+      </c>
+      <c r="O55" t="n">
+        <v>5.227610175573416</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B56" t="n">
+        <v>107.7551020408163</v>
+      </c>
+      <c r="C56" t="n">
+        <v>3.575510204081633</v>
+      </c>
+      <c r="D56" t="n">
+        <v>8.771470617575345</v>
+      </c>
+      <c r="E56" t="n">
+        <v>5.391742363189537</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G56" t="n">
+        <v>107.7551020408163</v>
+      </c>
+      <c r="H56" t="n">
+        <v>3.454166666666667</v>
+      </c>
+      <c r="I56" t="n">
+        <v>7.918401752482638</v>
+      </c>
+      <c r="J56" t="n">
+        <v>5.208760619651877</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="L56" t="n">
+        <v>107.7551020408163</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3.433333333333334</v>
+      </c>
+      <c r="N56" t="n">
+        <v>7.777781117337772</v>
+      </c>
+      <c r="O56" t="n">
+        <v>5.177344693115979</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B57" t="n">
         <v>110</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C57" t="n">
         <v>3.4</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D57" t="n">
         <v>7.55628934066856</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E57" t="n">
         <v>5.127079210658543</v>
       </c>
-      <c r="F21" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="G21" t="n">
+      <c r="F57" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G57" t="n">
         <v>110</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H57" t="n">
         <v>3.4</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I57" t="n">
         <v>7.55628934066856</v>
       </c>
-      <c r="J21" t="n">
+      <c r="J57" t="n">
         <v>5.127079210658543</v>
       </c>
-      <c r="K21" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="L21" t="n">
+      <c r="K57" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="L57" t="n">
         <v>110</v>
       </c>
-      <c r="M21" t="n">
+      <c r="M57" t="n">
         <v>3.4</v>
       </c>
-      <c r="N21" t="n">
+      <c r="N57" t="n">
         <v>7.55628934066856</v>
       </c>
-      <c r="O21" t="n">
+      <c r="O57" t="n">
         <v>5.127079210658543</v>
       </c>
-      <c r="P21" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>110</v>
-      </c>
-      <c r="R21" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="S21" t="n">
-        <v>7.55628934066856</v>
-      </c>
-      <c r="T21" t="n">
-        <v>5.127079210658543</v>
-      </c>
-      <c r="U21" t="n">
+      <c r="P57" t="n">
         <v>0.48</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="G5:K5"/>
     <mergeCell ref="L5:P5"/>
-    <mergeCell ref="Q5:U5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/3DBeam/output/Querschnittswerte.xlsx
+++ b/3DBeam/output/Querschnittswerte.xlsx
@@ -604,7 +604,7 @@
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>Iy [m^4]</t>
+          <t>Iz [m^4]</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
@@ -629,7 +629,7 @@
       </c>
       <c r="I6" s="1" t="inlineStr">
         <is>
-          <t>Iy [m^4]</t>
+          <t>Iz [m^4]</t>
         </is>
       </c>
       <c r="J6" s="1" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="N6" s="1" t="inlineStr">
         <is>
-          <t>Iy [m^4]</t>
+          <t>Iz [m^4]</t>
         </is>
       </c>
       <c r="O6" s="1" t="inlineStr">
@@ -676,46 +676,46 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>326.2414788463088</v>
+        <v>88.73</v>
       </c>
       <c r="E8" t="n">
-        <v>18.09557368467723</v>
+        <v>11.06</v>
       </c>
       <c r="F8" t="n">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I8" t="n">
-        <v>326.2414788463088</v>
+        <v>88.73</v>
       </c>
       <c r="J8" t="n">
-        <v>18.09557368467723</v>
+        <v>11.06</v>
       </c>
       <c r="K8" t="n">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N8" t="n">
-        <v>188.92985298382</v>
+        <v>88.73</v>
       </c>
       <c r="O8" t="n">
-        <v>15.07964473723102</v>
+        <v>11.06</v>
       </c>
       <c r="P8" t="n">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="9">
@@ -723,49 +723,49 @@
         <v>1</v>
       </c>
       <c r="B9" t="n">
-        <v>13.74999973022509</v>
+        <v>13.75</v>
       </c>
       <c r="C9" t="n">
-        <v>10.925</v>
+        <v>7.42</v>
       </c>
       <c r="D9" t="n">
-        <v>246.2651736246698</v>
+        <v>70.98</v>
       </c>
       <c r="E9" t="n">
-        <v>16.47451187542489</v>
+        <v>10.26</v>
       </c>
       <c r="F9" t="n">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
       <c r="G9" t="n">
-        <v>13.74999973022509</v>
+        <v>13.75</v>
       </c>
       <c r="H9" t="n">
-        <v>10.5</v>
+        <v>7.3</v>
       </c>
       <c r="I9" t="n">
-        <v>218.6631801935671</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="J9" t="n">
-        <v>15.83362697409258</v>
+        <v>10.09</v>
       </c>
       <c r="K9" t="n">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
       <c r="L9" t="n">
-        <v>13.74999973022509</v>
+        <v>13.75</v>
       </c>
       <c r="M9" t="n">
-        <v>9.166666666666666</v>
+        <v>7.3</v>
       </c>
       <c r="N9" t="n">
-        <v>145.5876797713413</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="O9" t="n">
-        <v>13.8230076757951</v>
+        <v>10.09</v>
       </c>
       <c r="P9" t="n">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="10">
@@ -773,49 +773,49 @@
         <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>27.49999946045018</v>
+        <v>27.5</v>
       </c>
       <c r="C10" t="n">
-        <v>9.85</v>
+        <v>6.85</v>
       </c>
       <c r="D10" t="n">
-        <v>180.567636742559</v>
+        <v>55.77</v>
       </c>
       <c r="E10" t="n">
-        <v>14.85345006617256</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="F10" t="n">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
       <c r="G10" t="n">
-        <v>27.49999946045018</v>
+        <v>27.5</v>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>6.6</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8041270596067</v>
+        <v>49.9</v>
       </c>
       <c r="J10" t="n">
-        <v>13.57168026350791</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
       <c r="L10" t="n">
-        <v>27.49999946045018</v>
+        <v>27.5</v>
       </c>
       <c r="M10" t="n">
-        <v>8.333333333333334</v>
+        <v>6.6</v>
       </c>
       <c r="N10" t="n">
-        <v>109.4449897233392</v>
+        <v>49.9</v>
       </c>
       <c r="O10" t="n">
-        <v>12.56637061435919</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="P10" t="n">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="11">
@@ -823,49 +823,49 @@
         <v>3</v>
       </c>
       <c r="B11" t="n">
-        <v>41.24999919067527</v>
+        <v>41.25</v>
       </c>
       <c r="C11" t="n">
-        <v>8.775</v>
+        <v>6.28</v>
       </c>
       <c r="D11" t="n">
-        <v>127.743863534989</v>
+        <v>42.9</v>
       </c>
       <c r="E11" t="n">
-        <v>13.23238825692021</v>
+        <v>8.67</v>
       </c>
       <c r="F11" t="n">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
       <c r="G11" t="n">
-        <v>41.24999919067527</v>
+        <v>41.25</v>
       </c>
       <c r="H11" t="n">
-        <v>7.5</v>
+        <v>5.9</v>
       </c>
       <c r="I11" t="n">
-        <v>79.8472843703159</v>
+        <v>35.68</v>
       </c>
       <c r="J11" t="n">
-        <v>11.30973355292327</v>
+        <v>8.16</v>
       </c>
       <c r="K11" t="n">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
       <c r="L11" t="n">
-        <v>41.24999919067527</v>
+        <v>41.25</v>
       </c>
       <c r="M11" t="n">
-        <v>7.5</v>
+        <v>5.9</v>
       </c>
       <c r="N11" t="n">
-        <v>79.8472843703159</v>
+        <v>35.68</v>
       </c>
       <c r="O11" t="n">
-        <v>11.30973355292327</v>
+        <v>8.16</v>
       </c>
       <c r="P11" t="n">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="12">
@@ -873,49 +873,49 @@
         <v>4</v>
       </c>
       <c r="B12" t="n">
-        <v>54.99999892090035</v>
+        <v>55</v>
       </c>
       <c r="C12" t="n">
-        <v>7.7</v>
+        <v>5.7</v>
       </c>
       <c r="D12" t="n">
-        <v>86.38884933697129</v>
+        <v>32.19</v>
       </c>
       <c r="E12" t="n">
-        <v>11.61132644766786</v>
+        <v>7.88</v>
       </c>
       <c r="F12" t="n">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
       <c r="G12" t="n">
-        <v>54.99999892090035</v>
+        <v>55</v>
       </c>
       <c r="H12" t="n">
-        <v>6</v>
+        <v>5.2</v>
       </c>
       <c r="I12" t="n">
-        <v>40.97561705158311</v>
+        <v>24.47</v>
       </c>
       <c r="J12" t="n">
-        <v>9.047786842338613</v>
+        <v>7.19</v>
       </c>
       <c r="K12" t="n">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
       <c r="L12" t="n">
-        <v>54.99999892090035</v>
+        <v>55</v>
       </c>
       <c r="M12" t="n">
-        <v>6</v>
+        <v>5.2</v>
       </c>
       <c r="N12" t="n">
-        <v>40.97561705158311</v>
+        <v>24.47</v>
       </c>
       <c r="O12" t="n">
-        <v>9.047786842338613</v>
+        <v>7.19</v>
       </c>
       <c r="P12" t="n">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="13">
@@ -923,49 +923,49 @@
         <v>5</v>
       </c>
       <c r="B13" t="n">
-        <v>68.74999865112544</v>
+        <v>68.75</v>
       </c>
       <c r="C13" t="n">
-        <v>6.625</v>
+        <v>5.12</v>
       </c>
       <c r="D13" t="n">
-        <v>55.09758948351856</v>
+        <v>23.43</v>
       </c>
       <c r="E13" t="n">
-        <v>9.99026463841555</v>
+        <v>7.08</v>
       </c>
       <c r="F13" t="n">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
       <c r="G13" t="n">
-        <v>68.74999865112544</v>
+        <v>68.75</v>
       </c>
       <c r="H13" t="n">
-        <v>5.35</v>
+        <v>4.5</v>
       </c>
       <c r="I13" t="n">
-        <v>29.09674283459829</v>
+        <v>15.9</v>
       </c>
       <c r="J13" t="n">
-        <v>8.067609934418595</v>
+        <v>6.22</v>
       </c>
       <c r="K13" t="n">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
       <c r="L13" t="n">
-        <v>68.74999865112544</v>
+        <v>68.75</v>
       </c>
       <c r="M13" t="n">
-        <v>5.35</v>
+        <v>4.5</v>
       </c>
       <c r="N13" t="n">
-        <v>29.09674283459829</v>
+        <v>15.9</v>
       </c>
       <c r="O13" t="n">
-        <v>8.067609934418595</v>
+        <v>6.22</v>
       </c>
       <c r="P13" t="n">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="14">
@@ -973,49 +973,49 @@
         <v>6</v>
       </c>
       <c r="B14" t="n">
-        <v>82.49999838135054</v>
+        <v>82.5</v>
       </c>
       <c r="C14" t="n">
-        <v>5.550000000000001</v>
+        <v>4.55</v>
       </c>
       <c r="D14" t="n">
-        <v>32.46507930964241</v>
+        <v>16.43</v>
       </c>
       <c r="E14" t="n">
-        <v>8.369202829163218</v>
+        <v>6.29</v>
       </c>
       <c r="F14" t="n">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
       <c r="G14" t="n">
-        <v>82.49999838135054</v>
+        <v>82.5</v>
       </c>
       <c r="H14" t="n">
-        <v>4.7</v>
+        <v>4.13</v>
       </c>
       <c r="I14" t="n">
-        <v>19.77429251558233</v>
+        <v>12.34</v>
       </c>
       <c r="J14" t="n">
-        <v>7.087433026498564</v>
+        <v>5.71</v>
       </c>
       <c r="K14" t="n">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
       <c r="L14" t="n">
-        <v>82.49999838135054</v>
+        <v>82.5</v>
       </c>
       <c r="M14" t="n">
-        <v>4.7</v>
+        <v>4.13</v>
       </c>
       <c r="N14" t="n">
-        <v>19.77429251558233</v>
+        <v>12.34</v>
       </c>
       <c r="O14" t="n">
-        <v>7.087433026498564</v>
+        <v>5.71</v>
       </c>
       <c r="P14" t="n">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="15">
@@ -1023,49 +1023,49 @@
         <v>7</v>
       </c>
       <c r="B15" t="n">
-        <v>96.24999811157562</v>
+        <v>96.25</v>
       </c>
       <c r="C15" t="n">
-        <v>4.475000000000001</v>
+        <v>3.98</v>
       </c>
       <c r="D15" t="n">
-        <v>17.08631415035502</v>
+        <v>10.99</v>
       </c>
       <c r="E15" t="n">
-        <v>6.74814101991087</v>
+        <v>5.49</v>
       </c>
       <c r="F15" t="n">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
       <c r="G15" t="n">
-        <v>96.24999811157562</v>
+        <v>96.25</v>
       </c>
       <c r="H15" t="n">
-        <v>4.05</v>
+        <v>3.77</v>
       </c>
       <c r="I15" t="n">
-        <v>12.69767253683815</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="J15" t="n">
-        <v>6.107256118578555</v>
+        <v>5.21</v>
       </c>
       <c r="K15" t="n">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
       <c r="L15" t="n">
-        <v>96.24999811157562</v>
+        <v>96.25</v>
       </c>
       <c r="M15" t="n">
-        <v>4.05</v>
+        <v>3.77</v>
       </c>
       <c r="N15" t="n">
-        <v>12.69767253683815</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="O15" t="n">
-        <v>6.107256118578555</v>
+        <v>5.21</v>
       </c>
       <c r="P15" t="n">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="16">
@@ -1073,49 +1073,49 @@
         <v>8</v>
       </c>
       <c r="B16" t="n">
-        <v>109.9999978418007</v>
+        <v>110</v>
       </c>
       <c r="C16" t="n">
         <v>3.4</v>
       </c>
       <c r="D16" t="n">
-        <v>7.55628934066856</v>
+        <v>6.9</v>
       </c>
       <c r="E16" t="n">
-        <v>5.127079210658543</v>
+        <v>4.7</v>
       </c>
       <c r="F16" t="n">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
       <c r="G16" t="n">
-        <v>109.9999978418007</v>
+        <v>110</v>
       </c>
       <c r="H16" t="n">
         <v>3.4</v>
       </c>
       <c r="I16" t="n">
-        <v>7.55628934066856</v>
+        <v>6.9</v>
       </c>
       <c r="J16" t="n">
-        <v>5.127079210658543</v>
+        <v>4.7</v>
       </c>
       <c r="K16" t="n">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
       <c r="L16" t="n">
-        <v>109.9999978418007</v>
+        <v>110</v>
       </c>
       <c r="M16" t="n">
         <v>3.4</v>
       </c>
       <c r="N16" t="n">
-        <v>7.55628934066856</v>
+        <v>6.9</v>
       </c>
       <c r="O16" t="n">
-        <v>5.127079210658543</v>
+        <v>4.7</v>
       </c>
       <c r="P16" t="n">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
     </row>
   </sheetData>

--- a/3DBeam/output/Querschnittswerte.xlsx
+++ b/3DBeam/output/Querschnittswerte.xlsx
@@ -455,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,6 +482,10 @@
     <col width="15" customWidth="1" min="17" max="17"/>
     <col width="15" customWidth="1" min="18" max="18"/>
     <col width="15" customWidth="1" min="19" max="19"/>
+    <col width="15" customWidth="1" min="20" max="20"/>
+    <col width="15" customWidth="1" min="21" max="21"/>
+    <col width="15" customWidth="1" min="22" max="22"/>
+    <col width="15" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -530,22 +534,32 @@
           <t>E90mean</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>alpha</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>alphaT</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B2" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C2" t="n">
         <v>0.4</v>
       </c>
       <c r="D2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="F2" t="n">
         <v>4</v>
@@ -558,37 +572,25 @@
       </c>
       <c r="I2" t="n">
         <v>370000000</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="K2" t="n">
+        <v>4e-06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr"/>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>Ring gerade</t>
+          <t>Ring Gerade t40</t>
         </is>
       </c>
       <c r="C5" s="2" t="n"/>
       <c r="D5" s="2" t="n"/>
       <c r="E5" s="2" t="n"/>
       <c r="F5" s="3" t="n"/>
-      <c r="G5" s="1" t="inlineStr">
-        <is>
-          <t>Ring 1Knick</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="n"/>
-      <c r="I5" s="2" t="n"/>
-      <c r="J5" s="2" t="n"/>
-      <c r="K5" s="3" t="n"/>
-      <c r="L5" s="1" t="inlineStr">
-        <is>
-          <t>Ring Knick mit Übergang</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="n"/>
-      <c r="N5" s="2" t="n"/>
-      <c r="O5" s="2" t="n"/>
-      <c r="P5" s="3" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr"/>
@@ -617,56 +619,6 @@
           <t>t [m]</t>
         </is>
       </c>
-      <c r="G6" s="1" t="inlineStr">
-        <is>
-          <t>Höhe [m]</t>
-        </is>
-      </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>d_achse [m]</t>
-        </is>
-      </c>
-      <c r="I6" s="1" t="inlineStr">
-        <is>
-          <t>Iz [m^4]</t>
-        </is>
-      </c>
-      <c r="J6" s="1" t="inlineStr">
-        <is>
-          <t>A [m²]</t>
-        </is>
-      </c>
-      <c r="K6" s="1" t="inlineStr">
-        <is>
-          <t>t [m]</t>
-        </is>
-      </c>
-      <c r="L6" s="1" t="inlineStr">
-        <is>
-          <t>Höhe [m]</t>
-        </is>
-      </c>
-      <c r="M6" s="1" t="inlineStr">
-        <is>
-          <t>d_achse [m]</t>
-        </is>
-      </c>
-      <c r="N6" s="1" t="inlineStr">
-        <is>
-          <t>Iz [m^4]</t>
-        </is>
-      </c>
-      <c r="O6" s="1" t="inlineStr">
-        <is>
-          <t>A [m²]</t>
-        </is>
-      </c>
-      <c r="P6" s="1" t="inlineStr">
-        <is>
-          <t>t [m]</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -676,46 +628,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D8" t="n">
-        <v>88.73</v>
+        <v>209.35</v>
       </c>
       <c r="E8" t="n">
-        <v>11.06</v>
+        <v>13.82</v>
       </c>
       <c r="F8" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-      <c r="I8" t="n">
-        <v>88.73</v>
-      </c>
-      <c r="J8" t="n">
-        <v>11.06</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>8</v>
-      </c>
-      <c r="N8" t="n">
-        <v>88.73</v>
-      </c>
-      <c r="O8" t="n">
-        <v>11.06</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="9">
@@ -723,49 +645,19 @@
         <v>1</v>
       </c>
       <c r="B9" t="n">
-        <v>13.75</v>
+        <v>14.44</v>
       </c>
       <c r="C9" t="n">
-        <v>7.42</v>
+        <v>10.16</v>
       </c>
       <c r="D9" t="n">
-        <v>70.98</v>
+        <v>164.78</v>
       </c>
       <c r="E9" t="n">
-        <v>10.26</v>
+        <v>12.76</v>
       </c>
       <c r="F9" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="G9" t="n">
-        <v>13.75</v>
-      </c>
-      <c r="H9" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="I9" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="J9" t="n">
-        <v>10.09</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="L9" t="n">
-        <v>13.75</v>
-      </c>
-      <c r="M9" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="N9" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="O9" t="n">
-        <v>10.09</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="10">
@@ -773,49 +665,19 @@
         <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>27.5</v>
+        <v>28.89</v>
       </c>
       <c r="C10" t="n">
-        <v>6.85</v>
+        <v>9.31</v>
       </c>
       <c r="D10" t="n">
-        <v>55.77</v>
+        <v>127.04</v>
       </c>
       <c r="E10" t="n">
-        <v>9.470000000000001</v>
+        <v>11.7</v>
       </c>
       <c r="F10" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="G10" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="H10" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="I10" t="n">
-        <v>49.9</v>
-      </c>
-      <c r="J10" t="n">
-        <v>9.119999999999999</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="L10" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="M10" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="N10" t="n">
-        <v>49.9</v>
-      </c>
-      <c r="O10" t="n">
-        <v>9.119999999999999</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="11">
@@ -823,49 +685,19 @@
         <v>3</v>
       </c>
       <c r="B11" t="n">
-        <v>41.25</v>
+        <v>43.33</v>
       </c>
       <c r="C11" t="n">
-        <v>6.28</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>42.9</v>
+        <v>95.55</v>
       </c>
       <c r="E11" t="n">
-        <v>8.67</v>
+        <v>10.64</v>
       </c>
       <c r="F11" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="G11" t="n">
-        <v>41.25</v>
-      </c>
-      <c r="H11" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="I11" t="n">
-        <v>35.68</v>
-      </c>
-      <c r="J11" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="L11" t="n">
-        <v>41.25</v>
-      </c>
-      <c r="M11" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="N11" t="n">
-        <v>35.68</v>
-      </c>
-      <c r="O11" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="12">
@@ -873,49 +705,19 @@
         <v>4</v>
       </c>
       <c r="B12" t="n">
-        <v>55</v>
+        <v>57.78</v>
       </c>
       <c r="C12" t="n">
-        <v>5.7</v>
+        <v>7.62</v>
       </c>
       <c r="D12" t="n">
-        <v>32.19</v>
+        <v>69.75</v>
       </c>
       <c r="E12" t="n">
-        <v>7.88</v>
+        <v>9.58</v>
       </c>
       <c r="F12" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="G12" t="n">
-        <v>55</v>
-      </c>
-      <c r="H12" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>24.47</v>
-      </c>
-      <c r="J12" t="n">
-        <v>7.19</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="L12" t="n">
-        <v>55</v>
-      </c>
-      <c r="M12" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="N12" t="n">
-        <v>24.47</v>
-      </c>
-      <c r="O12" t="n">
-        <v>7.19</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="13">
@@ -923,49 +725,19 @@
         <v>5</v>
       </c>
       <c r="B13" t="n">
-        <v>68.75</v>
+        <v>72.22</v>
       </c>
       <c r="C13" t="n">
-        <v>5.12</v>
+        <v>6.78</v>
       </c>
       <c r="D13" t="n">
-        <v>23.43</v>
+        <v>49.08</v>
       </c>
       <c r="E13" t="n">
-        <v>7.08</v>
+        <v>8.52</v>
       </c>
       <c r="F13" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="G13" t="n">
-        <v>68.75</v>
-      </c>
-      <c r="H13" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I13" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="J13" t="n">
-        <v>6.22</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="L13" t="n">
-        <v>68.75</v>
-      </c>
-      <c r="M13" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="N13" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="O13" t="n">
-        <v>6.22</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="14">
@@ -973,49 +745,19 @@
         <v>6</v>
       </c>
       <c r="B14" t="n">
-        <v>82.5</v>
+        <v>86.67</v>
       </c>
       <c r="C14" t="n">
-        <v>4.55</v>
+        <v>5.93</v>
       </c>
       <c r="D14" t="n">
-        <v>16.43</v>
+        <v>32.96</v>
       </c>
       <c r="E14" t="n">
-        <v>6.29</v>
+        <v>7.46</v>
       </c>
       <c r="F14" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="G14" t="n">
-        <v>82.5</v>
-      </c>
-      <c r="H14" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="I14" t="n">
-        <v>12.34</v>
-      </c>
-      <c r="J14" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="L14" t="n">
-        <v>82.5</v>
-      </c>
-      <c r="M14" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="N14" t="n">
-        <v>12.34</v>
-      </c>
-      <c r="O14" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="15">
@@ -1023,49 +765,19 @@
         <v>7</v>
       </c>
       <c r="B15" t="n">
-        <v>96.25</v>
+        <v>101.11</v>
       </c>
       <c r="C15" t="n">
-        <v>3.98</v>
+        <v>5.09</v>
       </c>
       <c r="D15" t="n">
-        <v>10.99</v>
+        <v>20.83</v>
       </c>
       <c r="E15" t="n">
-        <v>5.49</v>
+        <v>6.39</v>
       </c>
       <c r="F15" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="G15" t="n">
-        <v>96.25</v>
-      </c>
-      <c r="H15" t="n">
-        <v>3.77</v>
-      </c>
-      <c r="I15" t="n">
-        <v>9.359999999999999</v>
-      </c>
-      <c r="J15" t="n">
-        <v>5.21</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="L15" t="n">
-        <v>96.25</v>
-      </c>
-      <c r="M15" t="n">
-        <v>3.77</v>
-      </c>
-      <c r="N15" t="n">
-        <v>9.359999999999999</v>
-      </c>
-      <c r="O15" t="n">
-        <v>5.21</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="16">
@@ -1073,56 +785,44 @@
         <v>8</v>
       </c>
       <c r="B16" t="n">
-        <v>110</v>
+        <v>115.56</v>
       </c>
       <c r="C16" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="D16" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="E16" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B17" t="n">
+        <v>130</v>
+      </c>
+      <c r="C17" t="n">
         <v>3.4</v>
       </c>
-      <c r="D16" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="E16" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="G16" t="n">
-        <v>110</v>
-      </c>
-      <c r="H16" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I16" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="J16" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="L16" t="n">
-        <v>110</v>
-      </c>
-      <c r="M16" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="N16" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="O16" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0.44</v>
+      <c r="D17" t="n">
+        <v>6.26</v>
+      </c>
+      <c r="E17" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="1">
     <mergeCell ref="B5:F5"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="L5:P5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/3DBeam/output/Querschnittswerte.xlsx
+++ b/3DBeam/output/Querschnittswerte.xlsx
@@ -455,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,6 +486,10 @@
     <col width="15" customWidth="1" min="21" max="21"/>
     <col width="15" customWidth="1" min="22" max="22"/>
     <col width="15" customWidth="1" min="23" max="23"/>
+    <col width="15" customWidth="1" min="24" max="24"/>
+    <col width="15" customWidth="1" min="25" max="25"/>
+    <col width="15" customWidth="1" min="26" max="26"/>
+    <col width="15" customWidth="1" min="27" max="27"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -521,25 +525,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>fvxyk</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ftornodek</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>rhok</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>E0mean</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>E90mean</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>alpha</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>alphaT</t>
         </is>
@@ -565,18 +579,24 @@
         <v>4</v>
       </c>
       <c r="G2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I2" t="n">
         <v>460</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>12000000000</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>370000000</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>0.02</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>4e-06</v>
       </c>
     </row>

--- a/3DBeam/output/Querschnittswerte.xlsx
+++ b/3DBeam/output/Querschnittswerte.xlsx
@@ -610,7 +610,8 @@
       <c r="C5" s="2" t="n"/>
       <c r="D5" s="2" t="n"/>
       <c r="E5" s="2" t="n"/>
-      <c r="F5" s="3" t="n"/>
+      <c r="F5" s="2" t="n"/>
+      <c r="G5" s="3" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr"/>
@@ -636,6 +637,11 @@
       </c>
       <c r="F6" s="1" t="inlineStr">
         <is>
+          <t>U [m]</t>
+        </is>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
           <t>t [m]</t>
         </is>
       </c>
@@ -657,6 +663,9 @@
         <v>13.82</v>
       </c>
       <c r="F8" t="n">
+        <v>34.56</v>
+      </c>
+      <c r="G8" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -677,6 +686,9 @@
         <v>12.76</v>
       </c>
       <c r="F9" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="G9" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -697,6 +709,9 @@
         <v>11.7</v>
       </c>
       <c r="F10" t="n">
+        <v>29.25</v>
+      </c>
+      <c r="G10" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -717,6 +732,9 @@
         <v>10.64</v>
       </c>
       <c r="F11" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="G11" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -737,6 +755,9 @@
         <v>9.58</v>
       </c>
       <c r="F12" t="n">
+        <v>23.95</v>
+      </c>
+      <c r="G12" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -757,6 +778,9 @@
         <v>8.52</v>
       </c>
       <c r="F13" t="n">
+        <v>21.29</v>
+      </c>
+      <c r="G13" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -777,6 +801,9 @@
         <v>7.46</v>
       </c>
       <c r="F14" t="n">
+        <v>18.64</v>
+      </c>
+      <c r="G14" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -797,6 +824,9 @@
         <v>6.39</v>
       </c>
       <c r="F15" t="n">
+        <v>15.99</v>
+      </c>
+      <c r="G15" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -817,6 +847,9 @@
         <v>5.33</v>
       </c>
       <c r="F16" t="n">
+        <v>13.33</v>
+      </c>
+      <c r="G16" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -837,12 +870,15 @@
         <v>4.27</v>
       </c>
       <c r="F17" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="G17" t="n">
         <v>0.4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B5:G5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/3DBeam/output/Querschnittswerte.xlsx
+++ b/3DBeam/output/Querschnittswerte.xlsx
@@ -455,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,6 +490,16 @@
     <col width="15" customWidth="1" min="25" max="25"/>
     <col width="15" customWidth="1" min="26" max="26"/>
     <col width="15" customWidth="1" min="27" max="27"/>
+    <col width="15" customWidth="1" min="28" max="28"/>
+    <col width="15" customWidth="1" min="29" max="29"/>
+    <col width="15" customWidth="1" min="30" max="30"/>
+    <col width="15" customWidth="1" min="31" max="31"/>
+    <col width="15" customWidth="1" min="32" max="32"/>
+    <col width="15" customWidth="1" min="33" max="33"/>
+    <col width="15" customWidth="1" min="34" max="34"/>
+    <col width="15" customWidth="1" min="35" max="35"/>
+    <col width="15" customWidth="1" min="36" max="36"/>
+    <col width="15" customWidth="1" min="37" max="37"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -535,25 +545,50 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>fvFek</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>rhok</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>E0mean</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>E90mean</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Furnierebene</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>rhok_Fe</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>G0mean</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>G4545</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>alpha</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>alphaT</t>
         </is>
@@ -585,18 +620,33 @@
         <v>2.5</v>
       </c>
       <c r="I2" t="n">
+        <v>31</v>
+      </c>
+      <c r="J2" t="n">
         <v>460</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>12000000000</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>370000000</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>735</v>
+      </c>
+      <c r="O2" t="n">
+        <v>500</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4227</v>
+      </c>
+      <c r="Q2" t="n">
         <v>0.02</v>
       </c>
-      <c r="M2" t="n">
+      <c r="R2" t="n">
         <v>4e-06</v>
       </c>
     </row>
@@ -637,7 +687,7 @@
       </c>
       <c r="F6" s="1" t="inlineStr">
         <is>
-          <t>U [m]</t>
+          <t>U_achse [m]</t>
         </is>
       </c>
       <c r="G6" s="1" t="inlineStr">
@@ -657,16 +707,16 @@
         <v>11</v>
       </c>
       <c r="D8" t="n">
-        <v>209.35</v>
+        <v>186.27</v>
       </c>
       <c r="E8" t="n">
-        <v>13.82</v>
+        <v>12.3</v>
       </c>
       <c r="F8" t="n">
         <v>34.56</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="9">
@@ -680,16 +730,16 @@
         <v>10.16</v>
       </c>
       <c r="D9" t="n">
-        <v>164.78</v>
+        <v>146.61</v>
       </c>
       <c r="E9" t="n">
-        <v>12.76</v>
+        <v>11.36</v>
       </c>
       <c r="F9" t="n">
         <v>31.9</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="10">
@@ -703,16 +753,16 @@
         <v>9.31</v>
       </c>
       <c r="D10" t="n">
-        <v>127.04</v>
+        <v>113.02</v>
       </c>
       <c r="E10" t="n">
-        <v>11.7</v>
+        <v>10.41</v>
       </c>
       <c r="F10" t="n">
         <v>29.25</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="11">
@@ -726,16 +776,16 @@
         <v>8.470000000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>95.55</v>
+        <v>85</v>
       </c>
       <c r="E11" t="n">
-        <v>10.64</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="F11" t="n">
         <v>26.6</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="12">
@@ -749,16 +799,16 @@
         <v>7.62</v>
       </c>
       <c r="D12" t="n">
-        <v>69.75</v>
+        <v>62.04</v>
       </c>
       <c r="E12" t="n">
-        <v>9.58</v>
+        <v>8.52</v>
       </c>
       <c r="F12" t="n">
         <v>23.95</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="13">
@@ -772,16 +822,16 @@
         <v>6.78</v>
       </c>
       <c r="D13" t="n">
-        <v>49.08</v>
+        <v>43.65</v>
       </c>
       <c r="E13" t="n">
-        <v>8.52</v>
+        <v>7.58</v>
       </c>
       <c r="F13" t="n">
         <v>21.29</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="14">
@@ -795,16 +845,16 @@
         <v>5.93</v>
       </c>
       <c r="D14" t="n">
-        <v>32.96</v>
+        <v>29.31</v>
       </c>
       <c r="E14" t="n">
-        <v>7.46</v>
+        <v>6.64</v>
       </c>
       <c r="F14" t="n">
         <v>18.64</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="15">
@@ -818,16 +868,16 @@
         <v>5.09</v>
       </c>
       <c r="D15" t="n">
-        <v>20.83</v>
+        <v>18.51</v>
       </c>
       <c r="E15" t="n">
-        <v>6.39</v>
+        <v>5.69</v>
       </c>
       <c r="F15" t="n">
         <v>15.99</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="16">
@@ -841,16 +891,16 @@
         <v>4.24</v>
       </c>
       <c r="D16" t="n">
-        <v>12.12</v>
+        <v>10.77</v>
       </c>
       <c r="E16" t="n">
-        <v>5.33</v>
+        <v>4.75</v>
       </c>
       <c r="F16" t="n">
         <v>13.33</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="17">
@@ -864,16 +914,16 @@
         <v>3.4</v>
       </c>
       <c r="D17" t="n">
-        <v>6.26</v>
+        <v>5.55</v>
       </c>
       <c r="E17" t="n">
-        <v>4.27</v>
+        <v>3.8</v>
       </c>
       <c r="F17" t="n">
         <v>10.68</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
     </row>
   </sheetData>

--- a/3DBeam/output/Querschnittswerte.xlsx
+++ b/3DBeam/output/Querschnittswerte.xlsx
@@ -661,7 +661,8 @@
       <c r="D5" s="2" t="n"/>
       <c r="E5" s="2" t="n"/>
       <c r="F5" s="2" t="n"/>
-      <c r="G5" s="3" t="n"/>
+      <c r="G5" s="2" t="n"/>
+      <c r="H5" s="3" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr"/>
@@ -695,6 +696,11 @@
           <t>t [m]</t>
         </is>
       </c>
+      <c r="H6" s="1" t="inlineStr">
+        <is>
+          <t>V_section [m³]</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -718,6 +724,9 @@
       <c r="G8" t="n">
         <v>0.36</v>
       </c>
+      <c r="H8" t="n">
+        <v>170.88</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -741,6 +750,9 @@
       <c r="G9" t="n">
         <v>0.36</v>
       </c>
+      <c r="H9" t="n">
+        <v>157.24</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -764,6 +776,9 @@
       <c r="G10" t="n">
         <v>0.36</v>
       </c>
+      <c r="H10" t="n">
+        <v>143.6</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -787,6 +802,9 @@
       <c r="G11" t="n">
         <v>0.36</v>
       </c>
+      <c r="H11" t="n">
+        <v>129.96</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -810,6 +828,9 @@
       <c r="G12" t="n">
         <v>0.36</v>
       </c>
+      <c r="H12" t="n">
+        <v>116.31</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -833,6 +854,9 @@
       <c r="G13" t="n">
         <v>0.36</v>
       </c>
+      <c r="H13" t="n">
+        <v>102.67</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -856,6 +880,9 @@
       <c r="G14" t="n">
         <v>0.36</v>
       </c>
+      <c r="H14" t="n">
+        <v>89.03</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -879,6 +906,9 @@
       <c r="G15" t="n">
         <v>0.36</v>
       </c>
+      <c r="H15" t="n">
+        <v>75.39</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -902,6 +932,9 @@
       <c r="G16" t="n">
         <v>0.36</v>
       </c>
+      <c r="H16" t="n">
+        <v>61.75</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -925,10 +958,13 @@
       <c r="G17" t="n">
         <v>0.36</v>
       </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B5:H5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
